--- a/src/test/resources/case/editEducationTest.xlsx
+++ b/src/test/resources/case/editEducationTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,26 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/expected/education_base3.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/expected/education_base2.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/expected/education_base1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>education</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,15 +119,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>\case\eduID.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\case\token.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/editEducation_base1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>微迅建筑大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\case\eduID.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\case\token.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +498,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -543,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -591,10 +575,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -606,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +608,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,24 +629,14 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
